--- a/Datasets/datasets_info.xlsx
+++ b/Datasets/datasets_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haibinzhao/Desktop/TECO/11_Split_Manufacturing one mask/PythonCode/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204C2E02-ECF4-0E40-A51B-1BF075DFDDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434F1DC2-B4A0-B742-A772-46E726845547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35840" yWindow="2700" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35840" yWindow="2700" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -801,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView zoomScale="109" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="109" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -2547,7 +2547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
